--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +466,11 @@
           <t>Sheet 1-1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sheet 1-2</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Sheet 1-3</t>
@@ -486,8 +488,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sheet 1-6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sheet 1-7</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Sheet 1-8</t>
@@ -628,422 +638,6 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>KKH5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Title3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Title4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Title5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sheet 2-1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sheet 2-2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sheet 2-3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sheet 2-4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sheet 2-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sheet 2-6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sheet 2-7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sheet 2-8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sheet 2-9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sheet 2-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sheet 2-11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sheet 2-12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sheet 2-13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sheet 2-14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sheet 2-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sheet 2-16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sheet 2-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sheet 2-18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sheet 2-19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sheet 2-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sheet 2-21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sheet 2-22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sheet 2-23</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sheet 2-24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sheet 2-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sheet 2-26</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sheet 2-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sheet 2-28</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sheet 2-29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sheet 2-30</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Title3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Title4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Title5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sheet 3-1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sheet 3-2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sheet 3-3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sheet 3-4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sheet 3-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sheet 3-6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sheet 3-7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sheet 3-8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sheet 3-9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sheet 3-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sheet 3-11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sheet 3-12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sheet 3-13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sheet 3-14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sheet 3-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sheet 3-16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sheet 3-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sheet 3-18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sheet 3-19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sheet 3-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sheet 3-21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sheet 3-22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sheet 3-23</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sheet 3-24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sheet 3-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sheet 3-26</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sheet 3-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sheet 3-28</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sheet 3-29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sheet 3-30</t>
         </is>
       </c>
     </row>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Description" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,208 +436,54 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Title1</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title2</t>
+          <t>version</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Title3</t>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Title4</t>
+          <t>Config_Signal</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Title5</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sheet 1-1</t>
+          <t>SOC_Gauge_CV</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sheet 1-2</t>
+          <t>4.0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sheet 1-3</t>
+          <t>[CV630] SOC_Gauge_CV. Contains : Telltale, Constant, Event. Recommend: VALUE_CHANGED</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sheet 1-4</t>
+          <t>Vehicle.System.Config.Inter_ConfigVehicleType</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sheet 1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sheet 1-6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sheet 1-7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sheet 1-8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sheet 1-9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sheet 1-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sheet 1-11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sheet 1-12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sheet 1-13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sheet 1-14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sheet 1-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sheet 1-16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sheet 1-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sheet 1-18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sheet 1-19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sheet 1-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sheet 1-21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sheet 1-22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sheet 1-23</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sheet 1-24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sheet 1-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sheet 1-26</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sheet 1-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sheet 1-28</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sheet 1-29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sheet 1-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KKH1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KKH4</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KKH5</t>
+          <t>EV, FCEV</t>
         </is>
       </c>
     </row>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -463,29 +463,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOC_Gauge_CV</t>
+          <t>ECAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.0.0</t>
+          <t>11.0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[CV630] SOC_Gauge_CV. Contains : Telltale, Constant, Event. Recommend: VALUE_CHANGED</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Config.Inter_ConfigVehicleType</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EV, FCEV</t>
-        </is>
-      </c>
+          <t>Reference : [CV150] ECAS. Contains : Telltale, Constant. Recommend: VALUE_CHANGED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,21 +463,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ECAS</t>
+          <t>adsfasdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.0.0</t>
+          <t>Description[0_1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reference : [CV150] ECAS. Contains : Telltale, Constant. Recommend: VALUE_CHANGED</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>Description[0_2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Description[0_3]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Description[0_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Description[1_0]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description[1_1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Description[1_2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Description[1_3]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Description[1_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Description[2_0]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sdfasdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Description[2_2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Description[2_3]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description[2_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Description[3_0]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Description[3_1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Description[3_2]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Description[3_3]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description[3_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Description[4_0]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Description[4_2]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Description[4_3]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description[4_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Description[5_0]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Description[5_1]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Description[5_2]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Description[5_3]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description[5_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Description[6_0]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Description[6_1]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Description[6_2]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Description[6_3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description[6_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Description[7_0]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Description[7_1]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Description[7_2]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Description[7_3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description[7_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Description[8_0]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Description[8_1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Description[8_2]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Description[8_3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description[8_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Description[9_0]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Description[9_1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Description[9_2]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Description[9_3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description[9_4]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adsfasdf</t>
+          <t>Description[0_0]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sdfasdf</t>
+          <t>Description[2_1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Description[3_1]</t>
+          <t>asdfasdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>fg</t>
+          <t>Description[4_1]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,272 +463,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Description[0_0]</t>
+          <t>ECAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Description[0_1]</t>
+          <t>11.0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Description[0_2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Description[0_3]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Description[0_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Description[1_0]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description[1_1]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Description[1_2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Description[1_3]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Description[1_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Description[2_0]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Description[2_1]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Description[2_2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Description[2_3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description[2_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Description[3_0]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asdfasdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Description[3_2]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Description[3_3]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description[3_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Description[4_0]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Description[4_1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Description[4_2]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Description[4_3]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description[4_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Description[5_0]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Description[5_1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Description[5_2]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Description[5_3]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Description[5_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Description[6_0]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Description[6_1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Description[6_2]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Description[6_3]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Description[6_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Description[7_0]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Description[7_1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Description[7_2]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Description[7_3]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Description[7_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Description[8_0]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Description[8_1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Description[8_2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Description[8_3]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Description[8_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Description[9_0]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Description[9_1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Description[9_2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Description[9_3]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Description[9_4]</t>
-        </is>
-      </c>
+          <t>Reference : [CV150] ECAS. Contains : Telltale, Constant. Recommend: VALUE_CHANGED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,21 +463,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ECAS</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.0.0</t>
+          <t>Description[0_1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reference : [CV150] ECAS. Contains : Telltale, Constant. Recommend: VALUE_CHANGED</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>Description[0_2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Description[0_3]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Description[0_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Description[1_0]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description[1_1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Description[1_2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Description[1_3]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Description[1_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Description[2_0]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Description[2_1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Description[2_2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Description[2_3]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description[2_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Description[3_0]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Description[3_1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Description[3_2]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Description[3_3]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description[3_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Description[4_0]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Description[4_1]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Description[4_2]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Description[4_3]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description[4_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Description[5_0]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Description[5_1]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Description[5_2]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Description[5_3]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description[5_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Description[6_0]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Description[6_1]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Description[6_2]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Description[6_3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description[6_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Description[7_0]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Description[7_1]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Description[7_2]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Description[7_3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description[7_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Description[8_0]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Description[8_1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Description[8_2]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Description[8_3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description[8_4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Description[9_0]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Description[9_1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Description[9_2]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Description[9_3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description[9_4]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -468,66 +468,66 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Description[0_1]</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Description[0_2]</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Description[0_3]</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Description[0_4]</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Description[1_0]</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Description[1_1]</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Description[1_2]</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Description[1_3]</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Description[1_4]</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Description[2_0]</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Description[2_1]</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Description[2_2]</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/Example/test_convert.xlsx
+++ b/Example/test_convert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,272 +463,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ECAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11.0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Description[2_3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description[2_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Description[3_0]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Description[3_1]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Description[3_2]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Description[3_3]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description[3_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Description[4_0]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Description[4_1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Description[4_2]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Description[4_3]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description[4_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Description[5_0]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Description[5_1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Description[5_2]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Description[5_3]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Description[5_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Description[6_0]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Description[6_1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Description[6_2]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Description[6_3]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Description[6_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Description[7_0]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Description[7_1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Description[7_2]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Description[7_3]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Description[7_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Description[8_0]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Description[8_1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Description[8_2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Description[8_3]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Description[8_4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Description[9_0]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Description[9_1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Description[9_2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Description[9_3]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Description[9_4]</t>
-        </is>
-      </c>
+          <t>Reference : [CV150] ECAS. Contains : Telltale, Constant. Recommend: VALUE_CHANGED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
